--- a/hardware/_archive/assembly/sequentialSwitch_bom.xlsx
+++ b/hardware/_archive/assembly/sequentialSwitch_bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tvirag\Documents\GitHub\VCSequentialSwitch\hardware\manuf\assembly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbone\Documents\GitHub\VCSequentialSwitch\hardware\_archive\assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AB5D0D-21BD-49C0-91F9-34A290B2A9DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB15011-5AFC-490C-ABCB-9CBF2BBC5C3B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>so-16</t>
   </si>
   <si>
-    <t>DG5412</t>
-  </si>
-  <si>
     <t> SSOP-16</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>C484717</t>
+  </si>
+  <si>
+    <t>DG412</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -616,7 +616,7 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32.25" customHeight="1">
@@ -672,77 +672,77 @@
         <v>19</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.5">
       <c r="A11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4">
